--- a/Phase_Field_Fracture/Figures/2D_Energies.xlsx
+++ b/Phase_Field_Fracture/Figures/2D_Energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idaang/Documents/GitHub/FEniCS/Phase_Field_Fracture/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB0AC33-7F49-5746-813A-C0530CB3226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257472EB-9EB4-7C4D-BCA3-9CD41E1B0701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21060" windowHeight="14900" xr2:uid="{F70C3409-1D20-524D-8E2B-91D74BB6C172}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21060" windowHeight="14900" activeTab="2" xr2:uid="{F70C3409-1D20-524D-8E2B-91D74BB6C172}"/>
   </bookViews>
   <sheets>
     <sheet name="PF" sheetId="5" r:id="rId1"/>
@@ -30248,7 +30248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C57A83B-4D5A-BB44-8D8D-0FA1050A9348}">
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -48619,7 +48619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182FED49-4442-B44C-82FD-98799B0744F6}">
   <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
